--- a/TestData/myDocument.xlsx
+++ b/TestData/myDocument.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC39DC0-9E41-4AF4-88F5-0DD1E31B1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="name1" localSheetId="0" comment="name1 description">Sheet1!$B$9</definedName>
+    <definedName name="name1" comment="name1 description" localSheetId="0">Sheet1!$B$9</definedName>
     <definedName name="name2" comment="name2 description">Sheet1!$E$11:$F$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,20 +102,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
@@ -128,16 +130,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,129 +154,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
+    <mruColors>
+      <color rgb="FF9EC248"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -289,6 +209,7 @@
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="accent1">
@@ -299,6 +220,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -326,6 +248,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -397,7 +320,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:shape val="box"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B13E-49ED-8070-E054EAF7855F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -431,11 +358,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:shape val="box"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B13E-49ED-8070-E054EAF7855F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
         <c:axId val="25956048"/>
         <c:axId val="63886807"/>
+        <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="25956048"/>
@@ -454,6 +395,7 @@
         <c:crossAx val="63886807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -482,7 +424,7 @@
               <c:manualLayout>
                 <c:xMode val="edge"/>
                 <c:yMode val="edge"/>
-                <c:x val="0.0345"/>
+                <c:x val="3.4500000000000003E-2"/>
                 <c:y val="0.34325"/>
               </c:manualLayout>
             </c:layout>
@@ -493,12 +435,13 @@
               </a:ln>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr vert="horz" rot="-5400000"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr lang="en-US" b="1" u="none" baseline="0"/>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
           </c:dispUnitsLbl>
@@ -510,7 +453,7 @@
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
-          <a:bodyPr vert="horz" rot="0"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -523,13 +466,14 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="1"/>
         <c:txPr>
-          <a:bodyPr vert="horz" rot="0"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -542,6 +486,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -549,10 +494,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8665"/>
-          <c:y val="0.444"/>
-          <c:w val="0.11675"/>
-          <c:h val="0.1675"/>
+          <c:x val="0.86650000000000005"/>
+          <c:y val="0.44400000000000001"/>
+          <c:w val="0.11675000000000001"/>
+          <c:h val="0.16750000000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -571,13 +516,27 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -586,10 +545,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.079"/>
-          <c:y val="0.06075"/>
+          <c:x val="7.9000000000000001E-2"/>
+          <c:y val="6.0749999999999998E-2"/>
           <c:w val="0.72075"/>
-          <c:h val="0.8325"/>
+          <c:h val="0.83250000000000002"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -599,7 +558,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -607,6 +572,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -628,8 +598,8 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
             <c:val val="1"/>
-            <c:noEndCap val="0"/>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -650,6 +620,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E3A-4B87-89AA-E336369A520F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -681,12 +656,27 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6E3A-4B87-89AA-E336369A520F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:upDownBars>
+          <c:gapWidth val="150"/>
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="43445831"/>
         <c:axId val="48470980"/>
       </c:lineChart>
@@ -707,6 +697,7 @@
         <c:crossAx val="48470980"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -732,20 +723,33 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -778,6 +782,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18BE-40D5-851D-6F6969558D26}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -804,8 +813,21 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18BE-40D5-851D-6F6969558D26}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="26267826"/>
         <c:axId val="12055093"/>
       </c:lineChart>
@@ -826,6 +848,7 @@
         <c:crossAx val="12055093"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -851,18 +874,884 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9EC248"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9EC248"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7A07-48E8-B398-828D8C12DFB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9EC248"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7A07-48E8-B398-828D8C12DFB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7A07-48E8-B398-828D8C12DFB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A07-48E8-B398-828D8C12DFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C4D4-40A2-B594-C061E77A1595}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C4D4-40A2-B594-C061E77A1595}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C4D4-40A2-B594-C061E77A1595}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A07-48E8-B398-828D8C12DFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" max="30000" page="10" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -878,13 +1767,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -900,7 +1795,9 @@
           <a:off x="2905125" y="400050"/>
           <a:ext cx="2133600" cy="1600200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -920,13 +1817,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -942,7 +1845,9 @@
           <a:off x="2857500" y="2495550"/>
           <a:ext cx="2105025" cy="1581150"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -960,10 +1865,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" fLocksText="0">
+    <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2">
-          <a:hlinkClick r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -972,7 +1882,9 @@
           <a:off x="6543675" y="952500"/>
           <a:ext cx="1581150" cy="714375"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -996,10 +1908,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr altLang="zh-CN" lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>sfsdfsdf</a:t>
           </a:r>
-          <a:endParaRPr altLang="en-US" lang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1018,9 +1930,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>94107</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" fLocksText="0">
+    <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="左箭头 4"/>
+        <xdr:cNvPr id="5" name="左箭头 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1028,7 +1946,9 @@
           <a:off x="6772275" y="2352675"/>
           <a:ext cx="981075" cy="485775"/>
         </a:xfrm>
-        <a:prstGeom prst="leftArrow"/>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1052,10 +1972,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr altLang="zh-CN" lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>sfsdf</a:t>
           </a:r>
-          <a:endParaRPr altLang="en-US" lang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1076,26 +1996,39 @@
           <xdr:row>24</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeAspect="1"/>
-            </xdr:cNvSpPr>
+            <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5486400" y="3086100"/>
-              <a:ext cx="1076325" cy="1076325"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
-            <a:prstGeom prst="rect"/>
-            <a:ln w="9525"/>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1118,26 +2051,175 @@
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Object 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeAspect="1"/>
-            </xdr:cNvSpPr>
+            <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5486400" y="4457700"/>
-              <a:ext cx="914400" cy="685800"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
-            <a:prstGeom prst="rect"/>
-            <a:ln w="9525"/>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Check Box 6</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Spinner 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1149,32 +2231,38 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1514475" y="857250"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1195,16 +2283,22 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6810375" y="971550"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1225,16 +2319,58 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3848100" y="4219575"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346F1210-73B8-BB52-F036-3B2096A6D40A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1244,9 +2380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1284,7 +2420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1318,6 +2454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1352,9 +2489,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1527,36 +2665,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="13.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="13.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="13.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="13.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>9</v>
@@ -1566,11 +2704,11 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="4:5" ht="13.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="11" spans="4:6" ht="13.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1582,53 +2720,55 @@
   <mergeCells count="1">
     <mergeCell ref="D6:E7"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning Title" sqref="B8">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning Title" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"System.Object[]"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="asd" prompt="sadsad" errorTitle="sadsad" error="asdasd" imeMode="on" sqref="F11">
+    <dataValidation type="whole" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="sadsad" error="asdasd" promptTitle="asd" prompt="sadsad" sqref="F11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>2</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="sina"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="1200" verticalDpi="1200" orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A25">
-      <selection pane="topLeft" activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="13.5">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="13.5">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -1647,13 +2787,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId3"/>
+        <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -1672,24 +2812,74 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
+        <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId9" name="Spinner 7">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
-      <selection pane="topLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1700,7 +2890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1712,6 +2902,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -1719,16 +2910,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1740,7 +2931,46 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2875AA3B-6ADE-4B15-8FB6-51251A7D886F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>